--- a/data/144/SNDO/Net borrowing requirement.xlsx
+++ b/data/144/SNDO/Net borrowing requirement.xlsx
@@ -473,7 +473,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF5"/>
+  <dimension ref="A1:AG5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -511,6 +511,7 @@
     <col min="30" max="30" width="15.42578125" customWidth="1"/>
     <col min="31" max="31" width="15.42578125" customWidth="1"/>
     <col min="32" max="32" width="15.42578125" customWidth="1"/>
+    <col min="33" max="33" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.223876953125" customHeight="1">
@@ -541,135 +542,140 @@
       </c>
       <c r="F1" s="3" t="inlineStr">
         <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="J1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="L1" s="3" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="M1" s="3" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="N1" s="3" t="inlineStr">
+      <c r="O1" s="3" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="O1" s="3" t="inlineStr">
+      <c r="P1" s="3" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="P1" s="3" t="inlineStr">
+      <c r="Q1" s="3" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="Q1" s="3" t="inlineStr">
+      <c r="R1" s="3" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="R1" s="3" t="inlineStr">
+      <c r="S1" s="3" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="S1" s="3" t="inlineStr">
+      <c r="T1" s="3" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="T1" s="3" t="inlineStr">
+      <c r="U1" s="3" t="inlineStr">
         <is>
           <t>2006</t>
         </is>
       </c>
-      <c r="U1" s="3" t="inlineStr">
+      <c r="V1" s="3" t="inlineStr">
         <is>
           <t>2005</t>
         </is>
       </c>
-      <c r="V1" s="3" t="inlineStr">
+      <c r="W1" s="3" t="inlineStr">
         <is>
           <t>2004</t>
         </is>
       </c>
-      <c r="W1" s="3" t="inlineStr">
+      <c r="X1" s="3" t="inlineStr">
         <is>
           <t>2003</t>
         </is>
       </c>
-      <c r="X1" s="3" t="inlineStr">
+      <c r="Y1" s="3" t="inlineStr">
         <is>
           <t>2002</t>
         </is>
       </c>
-      <c r="Y1" s="3" t="inlineStr">
+      <c r="Z1" s="3" t="inlineStr">
         <is>
           <t>2001</t>
         </is>
       </c>
-      <c r="Z1" s="3" t="inlineStr">
+      <c r="AA1" s="3" t="inlineStr">
         <is>
           <t>2000</t>
         </is>
       </c>
-      <c r="AA1" s="3" t="inlineStr">
+      <c r="AB1" s="3" t="inlineStr">
         <is>
           <t>1999</t>
         </is>
       </c>
-      <c r="AB1" s="3" t="inlineStr">
+      <c r="AC1" s="3" t="inlineStr">
         <is>
           <t>1998</t>
         </is>
       </c>
-      <c r="AC1" s="3" t="inlineStr">
+      <c r="AD1" s="3" t="inlineStr">
         <is>
           <t>1997</t>
         </is>
       </c>
-      <c r="AD1" s="3" t="inlineStr">
+      <c r="AE1" s="3" t="inlineStr">
         <is>
           <t>1996</t>
         </is>
       </c>
-      <c r="AE1" s="3" t="inlineStr">
+      <c r="AF1" s="3" t="inlineStr">
         <is>
           <t>1995</t>
         </is>
       </c>
-      <c r="AF1" s="3" t="inlineStr">
+      <c r="AG1" s="3" t="inlineStr">
         <is>
           <t>1994</t>
         </is>
@@ -690,84 +696,87 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="6">
+        <v>-1287.490734</v>
+      </c>
+      <c r="G2" s="6">
         <v>18009.617538</v>
       </c>
-      <c r="G2" s="6">
+      <c r="H2" s="6">
         <v>16793.9152</v>
       </c>
-      <c r="H2" s="6">
+      <c r="I2" s="6">
         <v>13012.208571</v>
       </c>
-      <c r="I2" s="6">
+      <c r="J2" s="6">
         <v>13160.018232</v>
       </c>
-      <c r="J2" s="6">
+      <c r="K2" s="6">
         <v>3430.166327</v>
       </c>
-      <c r="K2" s="6">
+      <c r="L2" s="6">
         <v>11317.646223</v>
       </c>
-      <c r="L2" s="6">
+      <c r="M2" s="6">
         <v>7063.942864</v>
       </c>
-      <c r="M2" s="6">
+      <c r="N2" s="6">
         <v>25216.504457</v>
       </c>
-      <c r="N2" s="6">
+      <c r="O2" s="6">
         <v>27535.657136</v>
       </c>
-      <c r="O2" s="6">
+      <c r="P2" s="6">
         <v>28605.085513</v>
       </c>
-      <c r="P2" s="6">
+      <c r="Q2" s="6">
         <v>13320.550829</v>
       </c>
-      <c r="Q2" s="6">
+      <c r="R2" s="6">
         <v>12009.139252</v>
       </c>
-      <c r="R2" s="6">
+      <c r="S2" s="6">
         <v>31064.991876</v>
       </c>
-      <c r="S2" s="6">
+      <c r="T2" s="6">
         <v>34890.200977</v>
       </c>
-      <c r="T2" s="6">
+      <c r="U2" s="6">
         <v>33859.087745</v>
       </c>
-      <c r="U2" s="6">
+      <c r="V2" s="6">
         <v>30520.282921</v>
       </c>
-      <c r="V2" s="6">
+      <c r="W2" s="6">
         <v>33929.951477</v>
       </c>
-      <c r="W2" s="6">
+      <c r="X2" s="6">
         <v>21288.43575</v>
       </c>
-      <c r="X2" s="6">
+      <c r="Y2" s="6">
         <v>39397.721165</v>
       </c>
-      <c r="Y2" s="6">
+      <c r="Z2" s="6">
         <v>42188.212368</v>
       </c>
-      <c r="Z2" s="6">
+      <c r="AA2" s="6">
         <v>73846.571943</v>
       </c>
-      <c r="AA2" s="6">
+      <c r="AB2" s="6">
         <v>74581.38502799999</v>
       </c>
-      <c r="AB2" s="6">
+      <c r="AC2" s="6">
         <v>78143.178101</v>
       </c>
-      <c r="AC2" s="6">
+      <c r="AD2" s="6">
         <v>78238.698619</v>
       </c>
-      <c r="AD2" s="6">
+      <c r="AE2" s="6">
         <v>83521</v>
       </c>
-      <c r="AE2" s="6">
+      <c r="AF2" s="6">
         <v>74464</v>
       </c>
-      <c r="AF2" s="6">
+      <c r="AG2" s="6">
         <v>66812</v>
       </c>
     </row>
@@ -786,84 +795,87 @@
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="6">
+        <v>-1287.490734</v>
+      </c>
+      <c r="G3" s="6">
         <v>18009.617538</v>
       </c>
-      <c r="G3" s="6">
+      <c r="H3" s="6">
         <v>16793.9152</v>
       </c>
-      <c r="H3" s="6">
+      <c r="I3" s="6">
         <v>13012.208571</v>
       </c>
-      <c r="I3" s="6">
+      <c r="J3" s="6">
         <v>13160.018232</v>
       </c>
-      <c r="J3" s="6">
+      <c r="K3" s="6">
         <v>3430.166327</v>
       </c>
-      <c r="K3" s="6">
+      <c r="L3" s="6">
         <v>11317.646223</v>
       </c>
-      <c r="L3" s="6">
+      <c r="M3" s="6">
         <v>7063.942864</v>
       </c>
-      <c r="M3" s="6">
+      <c r="N3" s="6">
         <v>25216.504457</v>
       </c>
-      <c r="N3" s="6">
+      <c r="O3" s="6">
         <v>27535.657136</v>
       </c>
-      <c r="O3" s="6">
+      <c r="P3" s="6">
         <v>28605.085513</v>
       </c>
-      <c r="P3" s="6">
+      <c r="Q3" s="6">
         <v>13320.550829</v>
       </c>
-      <c r="Q3" s="6">
+      <c r="R3" s="6">
         <v>12009.139252</v>
       </c>
-      <c r="R3" s="6">
+      <c r="S3" s="6">
         <v>31064.991876</v>
       </c>
-      <c r="S3" s="6">
+      <c r="T3" s="6">
         <v>34890.200977</v>
       </c>
-      <c r="T3" s="6">
+      <c r="U3" s="6">
         <v>33859.087745</v>
       </c>
-      <c r="U3" s="6">
+      <c r="V3" s="6">
         <v>30520.282921</v>
       </c>
-      <c r="V3" s="6">
+      <c r="W3" s="6">
         <v>33929.951477</v>
       </c>
-      <c r="W3" s="6">
+      <c r="X3" s="6">
         <v>21288.43575</v>
       </c>
-      <c r="X3" s="6">
+      <c r="Y3" s="6">
         <v>39397.721165</v>
       </c>
-      <c r="Y3" s="6">
+      <c r="Z3" s="6">
         <v>42188.212368</v>
       </c>
-      <c r="Z3" s="6">
+      <c r="AA3" s="6">
         <v>73846.571943</v>
       </c>
-      <c r="AA3" s="6">
+      <c r="AB3" s="6">
         <v>74581.38502799999</v>
       </c>
-      <c r="AB3" s="6">
+      <c r="AC3" s="6">
         <v>78143.178101</v>
       </c>
-      <c r="AC3" s="6">
+      <c r="AD3" s="6">
         <v>78238.698619</v>
       </c>
-      <c r="AD3" s="6">
+      <c r="AE3" s="6">
         <v>83521</v>
       </c>
-      <c r="AE3" s="6">
+      <c r="AF3" s="6">
         <v>74464</v>
       </c>
-      <c r="AF3" s="6">
+      <c r="AG3" s="6">
         <v>66812</v>
       </c>
     </row>
@@ -878,84 +890,87 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="6">
+        <v>-1287.490734</v>
+      </c>
+      <c r="G4" s="6">
         <v>18009.617538</v>
       </c>
-      <c r="G4" s="6">
+      <c r="H4" s="6">
         <v>16793.9152</v>
       </c>
-      <c r="H4" s="6">
+      <c r="I4" s="6">
         <v>13012.208571</v>
       </c>
-      <c r="I4" s="6">
+      <c r="J4" s="6">
         <v>13160.018232</v>
       </c>
-      <c r="J4" s="6">
+      <c r="K4" s="6">
         <v>3430.166327</v>
       </c>
-      <c r="K4" s="6">
+      <c r="L4" s="6">
         <v>11317.646223</v>
       </c>
-      <c r="L4" s="6">
+      <c r="M4" s="6">
         <v>7063.942864</v>
       </c>
-      <c r="M4" s="6">
+      <c r="N4" s="6">
         <v>25216.504457</v>
       </c>
-      <c r="N4" s="6">
+      <c r="O4" s="6">
         <v>27535.657136</v>
       </c>
-      <c r="O4" s="6">
+      <c r="P4" s="6">
         <v>28605.085513</v>
       </c>
-      <c r="P4" s="6">
+      <c r="Q4" s="6">
         <v>13320.550829</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="R4" s="6">
         <v>12009.139252</v>
       </c>
-      <c r="R4" s="6">
+      <c r="S4" s="6">
         <v>31064.991876</v>
       </c>
-      <c r="S4" s="6">
+      <c r="T4" s="6">
         <v>34890.200977</v>
       </c>
-      <c r="T4" s="6">
+      <c r="U4" s="6">
         <v>33859.087745</v>
       </c>
-      <c r="U4" s="6">
+      <c r="V4" s="6">
         <v>30520.282921</v>
       </c>
-      <c r="V4" s="6">
+      <c r="W4" s="6">
         <v>33929.951477</v>
       </c>
-      <c r="W4" s="6">
+      <c r="X4" s="6">
         <v>21288.43575</v>
       </c>
-      <c r="X4" s="6">
+      <c r="Y4" s="6">
         <v>39397.721165</v>
       </c>
-      <c r="Y4" s="6">
+      <c r="Z4" s="6">
         <v>42188.212368</v>
       </c>
-      <c r="Z4" s="6">
+      <c r="AA4" s="6">
         <v>73846.571943</v>
       </c>
-      <c r="AA4" s="6">
+      <c r="AB4" s="6">
         <v>74581.38502799999</v>
       </c>
-      <c r="AB4" s="6">
+      <c r="AC4" s="6">
         <v>78143.178101</v>
       </c>
-      <c r="AC4" s="6">
+      <c r="AD4" s="6">
         <v>78238.698619</v>
       </c>
-      <c r="AD4" s="6">
+      <c r="AE4" s="6">
         <v>83521</v>
       </c>
-      <c r="AE4" s="6">
+      <c r="AF4" s="6">
         <v>74464</v>
       </c>
-      <c r="AF4" s="6">
+      <c r="AG4" s="6">
         <v>66812</v>
       </c>
     </row>
@@ -970,84 +985,87 @@
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="11">
+        <v>-1287.490734</v>
+      </c>
+      <c r="G5" s="11">
         <v>18009.617538</v>
       </c>
-      <c r="G5" s="11">
+      <c r="H5" s="11">
         <v>16793.9152</v>
       </c>
-      <c r="H5" s="11">
+      <c r="I5" s="11">
         <v>13012.208571</v>
       </c>
-      <c r="I5" s="11">
+      <c r="J5" s="11">
         <v>13160.018232</v>
       </c>
-      <c r="J5" s="11">
+      <c r="K5" s="11">
         <v>3430.166327</v>
       </c>
-      <c r="K5" s="11">
+      <c r="L5" s="11">
         <v>11317.646223</v>
       </c>
-      <c r="L5" s="11">
+      <c r="M5" s="11">
         <v>7063.942864</v>
       </c>
-      <c r="M5" s="11">
+      <c r="N5" s="11">
         <v>25216.504457</v>
       </c>
-      <c r="N5" s="11">
+      <c r="O5" s="11">
         <v>27535.657136</v>
       </c>
-      <c r="O5" s="11">
+      <c r="P5" s="11">
         <v>28605.085513</v>
       </c>
-      <c r="P5" s="11">
+      <c r="Q5" s="11">
         <v>13320.550829</v>
       </c>
-      <c r="Q5" s="11">
+      <c r="R5" s="11">
         <v>12009.139252</v>
       </c>
-      <c r="R5" s="11">
+      <c r="S5" s="11">
         <v>31064.991876</v>
       </c>
-      <c r="S5" s="11">
+      <c r="T5" s="11">
         <v>34890.200977</v>
       </c>
-      <c r="T5" s="11">
+      <c r="U5" s="11">
         <v>33859.087745</v>
       </c>
-      <c r="U5" s="11">
+      <c r="V5" s="11">
         <v>30520.282921</v>
       </c>
-      <c r="V5" s="11">
+      <c r="W5" s="11">
         <v>33929.951477</v>
       </c>
-      <c r="W5" s="11">
+      <c r="X5" s="11">
         <v>21288.43575</v>
       </c>
-      <c r="X5" s="11">
+      <c r="Y5" s="11">
         <v>39397.721165</v>
       </c>
-      <c r="Y5" s="11">
+      <c r="Z5" s="11">
         <v>42188.212368</v>
       </c>
-      <c r="Z5" s="11">
+      <c r="AA5" s="11">
         <v>73846.571943</v>
       </c>
-      <c r="AA5" s="11">
+      <c r="AB5" s="11">
         <v>74581.38502799999</v>
       </c>
-      <c r="AB5" s="11">
+      <c r="AC5" s="11">
         <v>78143.178101</v>
       </c>
-      <c r="AC5" s="11">
+      <c r="AD5" s="11">
         <v>78238.698619</v>
       </c>
-      <c r="AD5" s="11">
+      <c r="AE5" s="11">
         <v>83521</v>
       </c>
-      <c r="AE5" s="11">
+      <c r="AF5" s="11">
         <v>74464</v>
       </c>
-      <c r="AF5" s="11">
+      <c r="AG5" s="11">
         <v>66812</v>
       </c>
     </row>
